--- a/go_chaincode_1.xlsx
+++ b/go_chaincode_1.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mailb\Documents\chaincode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ziming\github\golang\Chaincode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D565F97B-6AD5-44A1-B183-0AA3DA8810F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E3A5C-E380-4A26-AA5B-63BF221B4E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="634">
   <si>
     <t>Repo</t>
   </si>
@@ -1920,6 +1931,10 @@
   </si>
   <si>
     <t>Fork</t>
+  </si>
+  <si>
+    <t>Private</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1990,7 +2005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2000,6 +2015,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2303,21 +2321,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G497"/>
+  <dimension ref="A1:H498"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="H499" sqref="H499"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="3" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>629</v>
       </c>
@@ -2339,8 +2358,11 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2362,8 +2384,11 @@
       <c r="G2" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2385,8 +2410,11 @@
       <c r="G3" s="2">
         <v>297</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2408,8 +2436,11 @@
       <c r="G4" s="2">
         <v>167</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2431,8 +2462,11 @@
       <c r="G5" s="2">
         <v>577</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2454,8 +2488,11 @@
       <c r="G6" s="2">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2477,8 +2514,11 @@
       <c r="G7" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2500,8 +2540,11 @@
       <c r="G8" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2523,8 +2566,11 @@
       <c r="G9" s="2">
         <v>175</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2546,8 +2592,11 @@
       <c r="G10" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2569,8 +2618,11 @@
       <c r="G11" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2592,8 +2644,11 @@
       <c r="G12" s="2">
         <v>478</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2615,8 +2670,11 @@
       <c r="G13" s="2">
         <v>784</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2638,8 +2696,11 @@
       <c r="G14" s="2">
         <v>126</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2661,8 +2722,11 @@
       <c r="G15" s="2">
         <v>156</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2684,8 +2748,11 @@
       <c r="G16" s="2">
         <v>108</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2707,8 +2774,11 @@
       <c r="G17" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2730,8 +2800,11 @@
       <c r="G18" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2753,8 +2826,11 @@
       <c r="G19" s="2">
         <v>353</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2776,8 +2852,11 @@
       <c r="G20" s="2">
         <v>413</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2799,8 +2878,11 @@
       <c r="G21" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2822,8 +2904,11 @@
       <c r="G22" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2845,8 +2930,11 @@
       <c r="G23" s="2">
         <v>401</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2868,8 +2956,11 @@
       <c r="G24" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2891,8 +2982,11 @@
       <c r="G25" s="2">
         <v>139</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2914,8 +3008,11 @@
       <c r="G26" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2937,8 +3034,11 @@
       <c r="G27" s="2">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2960,8 +3060,11 @@
       <c r="G28" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2983,8 +3086,11 @@
       <c r="G29" s="2">
         <v>122</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -3006,8 +3112,11 @@
       <c r="G30" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -3029,8 +3138,11 @@
       <c r="G31" s="2">
         <v>367</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -3052,8 +3164,11 @@
       <c r="G32" s="2">
         <v>187</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -3075,8 +3190,11 @@
       <c r="G33" s="2">
         <v>198</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -3098,8 +3216,11 @@
       <c r="G34" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -3121,8 +3242,11 @@
       <c r="G35" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -3144,8 +3268,11 @@
       <c r="G36" s="2">
         <v>301</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -3167,8 +3294,11 @@
       <c r="G37" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -3190,8 +3320,11 @@
       <c r="G38" s="2">
         <v>430</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -3213,8 +3346,11 @@
       <c r="G39" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -3236,8 +3372,11 @@
       <c r="G40" s="2">
         <v>351</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -3259,8 +3398,11 @@
       <c r="G41" s="2">
         <v>218</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -3282,8 +3424,11 @@
       <c r="G42" s="2">
         <v>238</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -3305,8 +3450,11 @@
       <c r="G43" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -3328,8 +3476,11 @@
       <c r="G44" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -3351,8 +3502,11 @@
       <c r="G45" s="2">
         <v>1054</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -3374,8 +3528,11 @@
       <c r="G46" s="2">
         <v>371</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -3397,8 +3554,11 @@
       <c r="G47" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -3420,8 +3580,11 @@
       <c r="G48" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -3443,8 +3606,11 @@
       <c r="G49" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -3466,8 +3632,11 @@
       <c r="G50" s="2">
         <v>244</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -3489,8 +3658,11 @@
       <c r="G51" s="2">
         <v>274</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -3512,8 +3684,11 @@
       <c r="G52" s="2">
         <v>298</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -3535,8 +3710,11 @@
       <c r="G53" s="2">
         <v>498</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -3558,8 +3736,11 @@
       <c r="G54" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -3581,8 +3762,11 @@
       <c r="G55" s="2">
         <v>199</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -3604,8 +3788,11 @@
       <c r="G56" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -3627,8 +3814,11 @@
       <c r="G57" s="2">
         <v>341</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -3650,8 +3840,11 @@
       <c r="G58" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -3673,8 +3866,11 @@
       <c r="G59" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -3696,8 +3892,11 @@
       <c r="G60" s="2">
         <v>167</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -3719,8 +3918,11 @@
       <c r="G61" s="2">
         <v>402</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -3742,8 +3944,11 @@
       <c r="G62" s="2">
         <v>322</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -3765,8 +3970,11 @@
       <c r="G63" s="2">
         <v>242</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -3788,8 +3996,11 @@
       <c r="G64" s="2">
         <v>293</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -3811,8 +4022,11 @@
       <c r="G65" s="2">
         <v>190</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -3834,8 +4048,11 @@
       <c r="G66" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -3857,8 +4074,11 @@
       <c r="G67" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -3880,8 +4100,11 @@
       <c r="G68" s="2">
         <v>838</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -3903,8 +4126,11 @@
       <c r="G69" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -3926,8 +4152,11 @@
       <c r="G70" s="2">
         <v>136</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -3949,8 +4178,11 @@
       <c r="G71" s="2">
         <v>202</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -3972,8 +4204,11 @@
       <c r="G72" s="2">
         <v>562</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -3995,8 +4230,11 @@
       <c r="G73" s="2">
         <v>165</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -4018,8 +4256,11 @@
       <c r="G74" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -4041,8 +4282,11 @@
       <c r="G75" s="2">
         <v>727</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -4064,8 +4308,11 @@
       <c r="G76" s="2">
         <v>556</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -4087,8 +4334,11 @@
       <c r="G77" s="2">
         <v>202</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -4110,8 +4360,11 @@
       <c r="G78" s="2">
         <v>326</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -4133,8 +4386,11 @@
       <c r="G79" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -4156,8 +4412,11 @@
       <c r="G80" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -4179,8 +4438,11 @@
       <c r="G81" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -4202,8 +4464,11 @@
       <c r="G82" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -4225,8 +4490,11 @@
       <c r="G83" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -4248,8 +4516,11 @@
       <c r="G84" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -4271,8 +4542,11 @@
       <c r="G85" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -4294,8 +4568,11 @@
       <c r="G86" s="2">
         <v>197</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -4317,8 +4594,11 @@
       <c r="G87" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -4340,8 +4620,11 @@
       <c r="G88" s="2">
         <v>245</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -4363,8 +4646,11 @@
       <c r="G89" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -4386,8 +4672,11 @@
       <c r="G90" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -4409,8 +4698,11 @@
       <c r="G91" s="2">
         <v>154</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -4432,8 +4724,11 @@
       <c r="G92" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -4455,8 +4750,11 @@
       <c r="G93" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -4478,8 +4776,11 @@
       <c r="G94" s="2">
         <v>242</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -4501,8 +4802,11 @@
       <c r="G95" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H95" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -4524,8 +4828,11 @@
       <c r="G96" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -4547,8 +4854,11 @@
       <c r="G97" s="2">
         <v>566</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -4570,8 +4880,11 @@
       <c r="G98" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -4593,8 +4906,11 @@
       <c r="G99" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -4616,8 +4932,11 @@
       <c r="G100" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -4639,8 +4958,11 @@
       <c r="G101" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -4662,8 +4984,11 @@
       <c r="G102" s="2">
         <v>297</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -4685,8 +5010,11 @@
       <c r="G103" s="2">
         <v>297</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -4708,8 +5036,11 @@
       <c r="G104" s="2">
         <v>297</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -4731,8 +5062,11 @@
       <c r="G105" s="2">
         <v>297</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -4754,8 +5088,11 @@
       <c r="G106" s="2">
         <v>577</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -4777,8 +5114,11 @@
       <c r="G107" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -4800,8 +5140,11 @@
       <c r="G108" s="2">
         <v>401</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -4823,8 +5166,11 @@
       <c r="G109" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -4846,8 +5192,11 @@
       <c r="G110" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -4869,8 +5218,11 @@
       <c r="G111" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -4892,8 +5244,11 @@
       <c r="G112" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -4915,8 +5270,11 @@
       <c r="G113" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -4938,8 +5296,11 @@
       <c r="G114" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -4961,8 +5322,11 @@
       <c r="G115" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -4984,8 +5348,11 @@
       <c r="G116" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -5007,8 +5374,11 @@
       <c r="G117" s="2">
         <v>298</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -5030,8 +5400,11 @@
       <c r="G118" s="2">
         <v>298</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -5053,8 +5426,11 @@
       <c r="G119" s="2">
         <v>298</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -5076,8 +5452,11 @@
       <c r="G120" s="2">
         <v>298</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -5099,8 +5478,11 @@
       <c r="G121" s="2">
         <v>293</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>120</v>
       </c>
@@ -5122,8 +5504,11 @@
       <c r="G122" s="2">
         <v>293</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -5145,8 +5530,11 @@
       <c r="G123" s="2">
         <v>293</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -5168,8 +5556,11 @@
       <c r="G124" s="2">
         <v>293</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -5191,8 +5582,11 @@
       <c r="G125" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -5214,8 +5608,11 @@
       <c r="G126" s="2">
         <v>556</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H126" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -5237,8 +5634,11 @@
       <c r="G127" s="2">
         <v>556</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H127" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -5260,8 +5660,11 @@
       <c r="G128" s="2">
         <v>556</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H128" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -5283,8 +5686,11 @@
       <c r="G129" s="2">
         <v>556</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H129" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -5306,8 +5712,11 @@
       <c r="G130" s="2">
         <v>326</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -5329,8 +5738,11 @@
       <c r="G131" s="2">
         <v>326</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -5352,8 +5764,11 @@
       <c r="G132" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -5375,8 +5790,11 @@
       <c r="G133" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -5398,8 +5816,11 @@
       <c r="G134" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -5421,8 +5842,11 @@
       <c r="G135" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -5444,8 +5868,11 @@
       <c r="G136" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -5467,8 +5894,11 @@
       <c r="G137" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -5490,8 +5920,11 @@
       <c r="G138" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>137</v>
       </c>
@@ -5513,8 +5946,11 @@
       <c r="G139" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -5536,8 +5972,11 @@
       <c r="G140" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -5559,8 +5998,11 @@
       <c r="G141" s="2">
         <v>166</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -5582,8 +6024,11 @@
       <c r="G142" s="2">
         <v>161</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>141</v>
       </c>
@@ -5605,8 +6050,11 @@
       <c r="G143" s="2">
         <v>154</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -5628,8 +6076,11 @@
       <c r="G144" s="2">
         <v>151</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H144" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>143</v>
       </c>
@@ -5651,8 +6102,11 @@
       <c r="G145" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -5674,8 +6128,11 @@
       <c r="G146" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -5697,8 +6154,11 @@
       <c r="G147" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -5720,8 +6180,11 @@
       <c r="G148" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>147</v>
       </c>
@@ -5743,8 +6206,11 @@
       <c r="G149" s="2">
         <v>113</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -5766,8 +6232,11 @@
       <c r="G150" s="2">
         <v>186</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -5789,8 +6258,11 @@
       <c r="G151" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -5812,8 +6284,11 @@
       <c r="G152" s="2">
         <v>171</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>151</v>
       </c>
@@ -5835,8 +6310,11 @@
       <c r="G153" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -5858,8 +6336,11 @@
       <c r="G154" s="2">
         <v>143</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>153</v>
       </c>
@@ -5881,8 +6362,11 @@
       <c r="G155" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>154</v>
       </c>
@@ -5904,8 +6388,11 @@
       <c r="G156" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -5927,8 +6414,11 @@
       <c r="G157" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>156</v>
       </c>
@@ -5950,8 +6440,11 @@
       <c r="G158" s="2">
         <v>124</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>157</v>
       </c>
@@ -5973,8 +6466,11 @@
       <c r="G159" s="2">
         <v>296</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>158</v>
       </c>
@@ -5996,8 +6492,11 @@
       <c r="G160" s="2">
         <v>273</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>159</v>
       </c>
@@ -6019,8 +6518,11 @@
       <c r="G161" s="2">
         <v>299</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -6042,8 +6544,11 @@
       <c r="G162" s="2">
         <v>154</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>161</v>
       </c>
@@ -6065,8 +6570,11 @@
       <c r="G163" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -6088,8 +6596,11 @@
       <c r="G164" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>163</v>
       </c>
@@ -6111,8 +6622,11 @@
       <c r="G165" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>164</v>
       </c>
@@ -6134,8 +6648,11 @@
       <c r="G166" s="2">
         <v>305</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H166" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -6157,8 +6674,11 @@
       <c r="G167" s="2">
         <v>113</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -6180,8 +6700,11 @@
       <c r="G168" s="2">
         <v>278</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>167</v>
       </c>
@@ -6203,8 +6726,11 @@
       <c r="G169" s="2">
         <v>278</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H169" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>168</v>
       </c>
@@ -6226,8 +6752,11 @@
       <c r="G170" s="2">
         <v>539</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H170" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>169</v>
       </c>
@@ -6249,8 +6778,11 @@
       <c r="G171" s="2">
         <v>1696</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H171" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>170</v>
       </c>
@@ -6272,8 +6804,11 @@
       <c r="G172" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H172" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>171</v>
       </c>
@@ -6295,8 +6830,11 @@
       <c r="G173" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>172</v>
       </c>
@@ -6318,8 +6856,11 @@
       <c r="G174" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H174" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>173</v>
       </c>
@@ -6341,8 +6882,11 @@
       <c r="G175" s="2">
         <v>393</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H175" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>174</v>
       </c>
@@ -6364,8 +6908,11 @@
       <c r="G176" s="2">
         <v>197</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H176" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>175</v>
       </c>
@@ -6387,8 +6934,11 @@
       <c r="G177" s="2">
         <v>173</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>176</v>
       </c>
@@ -6410,8 +6960,11 @@
       <c r="G178" s="2">
         <v>186</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H178" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>177</v>
       </c>
@@ -6433,8 +6986,11 @@
       <c r="G179" s="2">
         <v>451</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H179" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>178</v>
       </c>
@@ -6456,8 +7012,11 @@
       <c r="G180" s="2">
         <v>406</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H180" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>179</v>
       </c>
@@ -6479,8 +7038,11 @@
       <c r="G181" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H181" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>180</v>
       </c>
@@ -6502,8 +7064,11 @@
       <c r="G182" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H182" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>181</v>
       </c>
@@ -6525,8 +7090,11 @@
       <c r="G183" s="2">
         <v>303</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H183" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>182</v>
       </c>
@@ -6548,8 +7116,11 @@
       <c r="G184" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H184" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>183</v>
       </c>
@@ -6571,8 +7142,11 @@
       <c r="G185" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H185" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>184</v>
       </c>
@@ -6594,8 +7168,11 @@
       <c r="G186" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H186" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>185</v>
       </c>
@@ -6617,8 +7194,11 @@
       <c r="G187" s="2">
         <v>461</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H187" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>186</v>
       </c>
@@ -6640,8 +7220,11 @@
       <c r="G188" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H188" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>187</v>
       </c>
@@ -6663,8 +7246,11 @@
       <c r="G189" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H189" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>188</v>
       </c>
@@ -6686,8 +7272,11 @@
       <c r="G190" s="2">
         <v>144</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H190" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>189</v>
       </c>
@@ -6709,8 +7298,11 @@
       <c r="G191" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H191" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>190</v>
       </c>
@@ -6732,8 +7324,11 @@
       <c r="G192" s="2">
         <v>634</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H192" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>191</v>
       </c>
@@ -6755,8 +7350,11 @@
       <c r="G193" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H193" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>192</v>
       </c>
@@ -6778,8 +7376,11 @@
       <c r="G194" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H194" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>193</v>
       </c>
@@ -6801,8 +7402,11 @@
       <c r="G195" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H195" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>194</v>
       </c>
@@ -6824,8 +7428,11 @@
       <c r="G196" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H196" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>195</v>
       </c>
@@ -6847,8 +7454,11 @@
       <c r="G197" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H197" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>196</v>
       </c>
@@ -6870,8 +7480,11 @@
       <c r="G198" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H198" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>197</v>
       </c>
@@ -6893,8 +7506,11 @@
       <c r="G199" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H199" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>198</v>
       </c>
@@ -6916,8 +7532,11 @@
       <c r="G200" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H200" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>199</v>
       </c>
@@ -6939,8 +7558,11 @@
       <c r="G201" s="2">
         <v>572</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H201" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>200</v>
       </c>
@@ -6962,8 +7584,11 @@
       <c r="G202" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H202" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>201</v>
       </c>
@@ -6985,8 +7610,11 @@
       <c r="G203" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H203" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>202</v>
       </c>
@@ -7008,8 +7636,11 @@
       <c r="G204" s="2">
         <v>231</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H204" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>203</v>
       </c>
@@ -7031,8 +7662,11 @@
       <c r="G205" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H205" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>204</v>
       </c>
@@ -7054,8 +7688,11 @@
       <c r="G206" s="2">
         <v>59</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H206" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>205</v>
       </c>
@@ -7077,8 +7714,11 @@
       <c r="G207" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H207" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>206</v>
       </c>
@@ -7100,8 +7740,11 @@
       <c r="G208" s="2">
         <v>443</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H208" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>207</v>
       </c>
@@ -7123,8 +7766,11 @@
       <c r="G209" s="2">
         <v>140</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H209" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>208</v>
       </c>
@@ -7146,8 +7792,11 @@
       <c r="G210" s="2">
         <v>952</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H210" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>209</v>
       </c>
@@ -7169,8 +7818,11 @@
       <c r="G211" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H211" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>210</v>
       </c>
@@ -7192,8 +7844,11 @@
       <c r="G212" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H212" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>211</v>
       </c>
@@ -7215,8 +7870,11 @@
       <c r="G213" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H213" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>212</v>
       </c>
@@ -7238,8 +7896,11 @@
       <c r="G214" s="2">
         <v>241</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H214" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>213</v>
       </c>
@@ -7261,8 +7922,11 @@
       <c r="G215" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H215" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>214</v>
       </c>
@@ -7284,8 +7948,11 @@
       <c r="G216" s="2">
         <v>910</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H216" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>215</v>
       </c>
@@ -7307,8 +7974,11 @@
       <c r="G217" s="2">
         <v>113</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H217" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>216</v>
       </c>
@@ -7330,8 +8000,11 @@
       <c r="G218" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H218" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>217</v>
       </c>
@@ -7353,8 +8026,11 @@
       <c r="G219" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H219" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>218</v>
       </c>
@@ -7376,8 +8052,11 @@
       <c r="G220" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H220" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>219</v>
       </c>
@@ -7399,8 +8078,11 @@
       <c r="G221" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H221" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>220</v>
       </c>
@@ -7422,8 +8104,11 @@
       <c r="G222" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H222" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>221</v>
       </c>
@@ -7445,8 +8130,11 @@
       <c r="G223" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H223" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>222</v>
       </c>
@@ -7468,8 +8156,11 @@
       <c r="G224" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H224" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>223</v>
       </c>
@@ -7491,8 +8182,11 @@
       <c r="G225" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H225" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>224</v>
       </c>
@@ -7514,8 +8208,11 @@
       <c r="G226" s="2">
         <v>614</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H226" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>225</v>
       </c>
@@ -7537,8 +8234,11 @@
       <c r="G227" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H227" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>226</v>
       </c>
@@ -7560,8 +8260,11 @@
       <c r="G228" s="2">
         <v>553</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H228" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>227</v>
       </c>
@@ -7583,8 +8286,11 @@
       <c r="G229" s="2">
         <v>166</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H229" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>228</v>
       </c>
@@ -7606,8 +8312,11 @@
       <c r="G230" s="2">
         <v>166</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H230" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>229</v>
       </c>
@@ -7629,8 +8338,11 @@
       <c r="G231" s="2">
         <v>166</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H231" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>230</v>
       </c>
@@ -7652,8 +8364,11 @@
       <c r="G232" s="2">
         <v>166</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H232" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>231</v>
       </c>
@@ -7675,8 +8390,11 @@
       <c r="G233" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H233" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>232</v>
       </c>
@@ -7698,8 +8416,11 @@
       <c r="G234" s="2">
         <v>113</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H234" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>233</v>
       </c>
@@ -7721,8 +8442,11 @@
       <c r="G235" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H235" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>234</v>
       </c>
@@ -7744,8 +8468,11 @@
       <c r="G236" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H236" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>235</v>
       </c>
@@ -7767,8 +8494,11 @@
       <c r="G237" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H237" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>236</v>
       </c>
@@ -7790,8 +8520,11 @@
       <c r="G238" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H238" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>237</v>
       </c>
@@ -7813,8 +8546,11 @@
       <c r="G239" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H239" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>238</v>
       </c>
@@ -7836,8 +8572,11 @@
       <c r="G240" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H240" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>239</v>
       </c>
@@ -7859,8 +8598,11 @@
       <c r="G241" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H241" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>240</v>
       </c>
@@ -7882,8 +8624,11 @@
       <c r="G242" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H242" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>241</v>
       </c>
@@ -7905,8 +8650,11 @@
       <c r="G243" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H243" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>242</v>
       </c>
@@ -7928,8 +8676,11 @@
       <c r="G244" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H244" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>243</v>
       </c>
@@ -7951,8 +8702,11 @@
       <c r="G245" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H245" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>244</v>
       </c>
@@ -7974,8 +8728,11 @@
       <c r="G246" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H246" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>245</v>
       </c>
@@ -7997,8 +8754,11 @@
       <c r="G247" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H247" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>246</v>
       </c>
@@ -8020,8 +8780,11 @@
       <c r="G248" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H248" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>247</v>
       </c>
@@ -8043,8 +8806,11 @@
       <c r="G249" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H249" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>248</v>
       </c>
@@ -8066,8 +8832,11 @@
       <c r="G250" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H250" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>249</v>
       </c>
@@ -8089,8 +8858,11 @@
       <c r="G251" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H251" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>250</v>
       </c>
@@ -8112,8 +8884,11 @@
       <c r="G252" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H252" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>251</v>
       </c>
@@ -8135,8 +8910,11 @@
       <c r="G253" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H253" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>252</v>
       </c>
@@ -8158,8 +8936,11 @@
       <c r="G254" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H254" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>253</v>
       </c>
@@ -8181,8 +8962,11 @@
       <c r="G255" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H255" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>254</v>
       </c>
@@ -8204,8 +8988,11 @@
       <c r="G256" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H256" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>255</v>
       </c>
@@ -8227,8 +9014,11 @@
       <c r="G257" s="2">
         <v>196</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H257" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>256</v>
       </c>
@@ -8250,8 +9040,11 @@
       <c r="G258" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H258" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>257</v>
       </c>
@@ -8273,8 +9066,11 @@
       <c r="G259" s="2">
         <v>133</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H259" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>258</v>
       </c>
@@ -8296,8 +9092,11 @@
       <c r="G260" s="2">
         <v>583</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H260" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>259</v>
       </c>
@@ -8319,8 +9118,11 @@
       <c r="G261" s="2">
         <v>266</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H261" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>260</v>
       </c>
@@ -8342,8 +9144,11 @@
       <c r="G262" s="2">
         <v>461</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H262" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>261</v>
       </c>
@@ -8365,8 +9170,11 @@
       <c r="G263" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H263" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>262</v>
       </c>
@@ -8388,8 +9196,11 @@
       <c r="G264" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H264" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>263</v>
       </c>
@@ -8411,8 +9222,11 @@
       <c r="G265" s="2">
         <v>309</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H265" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>264</v>
       </c>
@@ -8434,8 +9248,11 @@
       <c r="G266" s="2">
         <v>216</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H266" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>265</v>
       </c>
@@ -8457,8 +9274,11 @@
       <c r="G267" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H267" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>266</v>
       </c>
@@ -8480,8 +9300,11 @@
       <c r="G268" s="2">
         <v>161</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H268" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>267</v>
       </c>
@@ -8503,8 +9326,11 @@
       <c r="G269" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H269" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>268</v>
       </c>
@@ -8526,8 +9352,11 @@
       <c r="G270" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H270" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>269</v>
       </c>
@@ -8549,8 +9378,11 @@
       <c r="G271" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H271" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>270</v>
       </c>
@@ -8572,8 +9404,11 @@
       <c r="G272" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H272" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>271</v>
       </c>
@@ -8595,8 +9430,11 @@
       <c r="G273" s="2">
         <v>166</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H273" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>272</v>
       </c>
@@ -8618,8 +9456,11 @@
       <c r="G274" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H274" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>273</v>
       </c>
@@ -8641,8 +9482,11 @@
       <c r="G275" s="2">
         <v>305</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H275" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>274</v>
       </c>
@@ -8664,8 +9508,11 @@
       <c r="G276" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H276" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>275</v>
       </c>
@@ -8687,8 +9534,11 @@
       <c r="G277" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H277" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>276</v>
       </c>
@@ -8710,8 +9560,11 @@
       <c r="G278" s="2">
         <v>133</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H278" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>277</v>
       </c>
@@ -8733,8 +9586,11 @@
       <c r="G279" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H279" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>278</v>
       </c>
@@ -8756,8 +9612,11 @@
       <c r="G280" s="2">
         <v>189</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H280" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>279</v>
       </c>
@@ -8779,8 +9638,11 @@
       <c r="G281" s="2">
         <v>624</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H281" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>280</v>
       </c>
@@ -8802,8 +9664,11 @@
       <c r="G282" s="2">
         <v>222</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H282" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>281</v>
       </c>
@@ -8825,8 +9690,11 @@
       <c r="G283" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H283" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>282</v>
       </c>
@@ -8848,8 +9716,11 @@
       <c r="G284" s="2">
         <v>249</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H284" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>283</v>
       </c>
@@ -8871,8 +9742,11 @@
       <c r="G285" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H285" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>284</v>
       </c>
@@ -8894,8 +9768,11 @@
       <c r="G286" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H286" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>285</v>
       </c>
@@ -8917,8 +9794,11 @@
       <c r="G287" s="2">
         <v>309</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H287" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>286</v>
       </c>
@@ -8940,8 +9820,11 @@
       <c r="G288" s="2">
         <v>342</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H288" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>287</v>
       </c>
@@ -8963,8 +9846,11 @@
       <c r="G289" s="2">
         <v>958</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H289" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>288</v>
       </c>
@@ -8986,8 +9872,11 @@
       <c r="G290" s="2">
         <v>164</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H290" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>289</v>
       </c>
@@ -9009,8 +9898,11 @@
       <c r="G291" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H291" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>290</v>
       </c>
@@ -9032,8 +9924,11 @@
       <c r="G292" s="2">
         <v>395</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H292" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>291</v>
       </c>
@@ -9055,8 +9950,11 @@
       <c r="G293" s="2">
         <v>1024</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H293" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>292</v>
       </c>
@@ -9078,8 +9976,11 @@
       <c r="G294" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H294" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>293</v>
       </c>
@@ -9101,8 +10002,11 @@
       <c r="G295" s="2">
         <v>267</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H295" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>294</v>
       </c>
@@ -9124,8 +10028,11 @@
       <c r="G296" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H296" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>295</v>
       </c>
@@ -9147,8 +10054,11 @@
       <c r="G297" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H297" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>296</v>
       </c>
@@ -9170,8 +10080,11 @@
       <c r="G298" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H298" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>297</v>
       </c>
@@ -9193,8 +10106,11 @@
       <c r="G299" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H299" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>298</v>
       </c>
@@ -9216,8 +10132,11 @@
       <c r="G300" s="2">
         <v>185</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H300" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>299</v>
       </c>
@@ -9239,8 +10158,11 @@
       <c r="G301" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H301" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>300</v>
       </c>
@@ -9262,8 +10184,11 @@
       <c r="G302" s="2">
         <v>367</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H302" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>301</v>
       </c>
@@ -9285,8 +10210,11 @@
       <c r="G303" s="2">
         <v>161</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H303" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>302</v>
       </c>
@@ -9308,8 +10236,11 @@
       <c r="G304" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H304" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>303</v>
       </c>
@@ -9331,8 +10262,11 @@
       <c r="G305" s="2">
         <v>222</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H305" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>304</v>
       </c>
@@ -9354,8 +10288,11 @@
       <c r="G306" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H306" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>305</v>
       </c>
@@ -9377,8 +10314,11 @@
       <c r="G307" s="2">
         <v>168</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H307" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>306</v>
       </c>
@@ -9400,8 +10340,11 @@
       <c r="G308" s="2">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H308" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>307</v>
       </c>
@@ -9423,8 +10366,11 @@
       <c r="G309" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H309" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>308</v>
       </c>
@@ -9446,8 +10392,11 @@
       <c r="G310" s="2">
         <v>172</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H310" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>309</v>
       </c>
@@ -9469,8 +10418,11 @@
       <c r="G311" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H311" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>310</v>
       </c>
@@ -9492,8 +10444,11 @@
       <c r="G312" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H312" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>311</v>
       </c>
@@ -9515,8 +10470,11 @@
       <c r="G313" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H313" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>312</v>
       </c>
@@ -9538,8 +10496,11 @@
       <c r="G314" s="2">
         <v>451</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H314" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>313</v>
       </c>
@@ -9561,8 +10522,11 @@
       <c r="G315" s="2">
         <v>466</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H315" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>314</v>
       </c>
@@ -9584,8 +10548,11 @@
       <c r="G316" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H316" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>315</v>
       </c>
@@ -9607,8 +10574,11 @@
       <c r="G317" s="2">
         <v>197</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H317" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>316</v>
       </c>
@@ -9630,8 +10600,11 @@
       <c r="G318" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H318" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>317</v>
       </c>
@@ -9653,8 +10626,11 @@
       <c r="G319" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H319" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>318</v>
       </c>
@@ -9676,8 +10652,11 @@
       <c r="G320" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H320" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>319</v>
       </c>
@@ -9699,8 +10678,11 @@
       <c r="G321" s="2">
         <v>462</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H321" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>320</v>
       </c>
@@ -9722,8 +10704,11 @@
       <c r="G322" s="2">
         <v>293</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H322" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>321</v>
       </c>
@@ -9745,8 +10730,11 @@
       <c r="G323" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H323" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>322</v>
       </c>
@@ -9768,8 +10756,11 @@
       <c r="G324" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H324" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>323</v>
       </c>
@@ -9791,8 +10782,11 @@
       <c r="G325" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H325" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>324</v>
       </c>
@@ -9814,8 +10808,11 @@
       <c r="G326" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H326" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>325</v>
       </c>
@@ -9837,8 +10834,11 @@
       <c r="G327" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H327" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>326</v>
       </c>
@@ -9860,8 +10860,11 @@
       <c r="G328" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H328" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>327</v>
       </c>
@@ -9883,8 +10886,11 @@
       <c r="G329" s="2">
         <v>624</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H329" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>328</v>
       </c>
@@ -9906,8 +10912,11 @@
       <c r="G330" s="2">
         <v>624</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H330" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>329</v>
       </c>
@@ -9929,8 +10938,11 @@
       <c r="G331" s="2">
         <v>624</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H331" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>330</v>
       </c>
@@ -9952,8 +10964,11 @@
       <c r="G332" s="2">
         <v>624</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H332" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>331</v>
       </c>
@@ -9975,8 +10990,11 @@
       <c r="G333" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H333" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>332</v>
       </c>
@@ -9998,8 +11016,11 @@
       <c r="G334" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H334" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>333</v>
       </c>
@@ -10021,8 +11042,11 @@
       <c r="G335" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H335" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>334</v>
       </c>
@@ -10044,8 +11068,11 @@
       <c r="G336" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H336" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>335</v>
       </c>
@@ -10067,8 +11094,11 @@
       <c r="G337" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H337" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>336</v>
       </c>
@@ -10090,8 +11120,11 @@
       <c r="G338" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H338" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>337</v>
       </c>
@@ -10113,8 +11146,11 @@
       <c r="G339" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H339" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>338</v>
       </c>
@@ -10136,8 +11172,11 @@
       <c r="G340" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H340" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>339</v>
       </c>
@@ -10159,8 +11198,11 @@
       <c r="G341" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H341" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>340</v>
       </c>
@@ -10182,8 +11224,11 @@
       <c r="G342" s="2">
         <v>466</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H342" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>341</v>
       </c>
@@ -10205,8 +11250,11 @@
       <c r="G343" s="2">
         <v>466</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H343" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>342</v>
       </c>
@@ -10228,8 +11276,11 @@
       <c r="G344" s="2">
         <v>466</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H344" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>343</v>
       </c>
@@ -10251,8 +11302,11 @@
       <c r="G345" s="2">
         <v>466</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H345" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>344</v>
       </c>
@@ -10274,8 +11328,11 @@
       <c r="G346" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H346" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>345</v>
       </c>
@@ -10297,8 +11354,11 @@
       <c r="G347" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H347" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>346</v>
       </c>
@@ -10320,8 +11380,11 @@
       <c r="G348" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H348" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>347</v>
       </c>
@@ -10343,8 +11406,11 @@
       <c r="G349" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H349" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>348</v>
       </c>
@@ -10366,8 +11432,11 @@
       <c r="G350" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H350" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>349</v>
       </c>
@@ -10389,8 +11458,11 @@
       <c r="G351" s="2">
         <v>236</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H351" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>350</v>
       </c>
@@ -10412,8 +11484,11 @@
       <c r="G352" s="2">
         <v>127</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H352" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>351</v>
       </c>
@@ -10435,8 +11510,11 @@
       <c r="G353" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H353" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>352</v>
       </c>
@@ -10458,8 +11536,11 @@
       <c r="G354" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H354" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>353</v>
       </c>
@@ -10481,8 +11562,11 @@
       <c r="G355" s="2">
         <v>558</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H355" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>354</v>
       </c>
@@ -10504,8 +11588,11 @@
       <c r="G356" s="2">
         <v>244</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H356" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>355</v>
       </c>
@@ -10527,8 +11614,11 @@
       <c r="G357" s="2">
         <v>127</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H357" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>356</v>
       </c>
@@ -10550,8 +11640,11 @@
       <c r="G358" s="2">
         <v>151</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H358" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>357</v>
       </c>
@@ -10573,8 +11666,11 @@
       <c r="G359" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H359" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>358</v>
       </c>
@@ -10596,8 +11692,11 @@
       <c r="G360" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H360" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>359</v>
       </c>
@@ -10619,8 +11718,11 @@
       <c r="G361" s="2">
         <v>204</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H361" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>360</v>
       </c>
@@ -10642,8 +11744,11 @@
       <c r="G362" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H362" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>361</v>
       </c>
@@ -10665,8 +11770,11 @@
       <c r="G363" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H363" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>362</v>
       </c>
@@ -10688,8 +11796,11 @@
       <c r="G364" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H364" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>363</v>
       </c>
@@ -10711,8 +11822,11 @@
       <c r="G365" s="2">
         <v>151</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H365" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>364</v>
       </c>
@@ -10734,8 +11848,11 @@
       <c r="G366" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H366" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>365</v>
       </c>
@@ -10757,8 +11874,11 @@
       <c r="G367" s="2">
         <v>293</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H367" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>366</v>
       </c>
@@ -10780,8 +11900,11 @@
       <c r="G368" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H368" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>367</v>
       </c>
@@ -10803,8 +11926,11 @@
       <c r="G369" s="2">
         <v>291</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H369" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>368</v>
       </c>
@@ -10826,8 +11952,11 @@
       <c r="G370" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H370" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>369</v>
       </c>
@@ -10849,8 +11978,11 @@
       <c r="G371" s="2">
         <v>490</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H371" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>370</v>
       </c>
@@ -10872,8 +12004,11 @@
       <c r="G372" s="2">
         <v>291</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H372" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>371</v>
       </c>
@@ -10895,8 +12030,11 @@
       <c r="G373" s="2">
         <v>146</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H373" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>372</v>
       </c>
@@ -10918,8 +12056,11 @@
       <c r="G374" s="2">
         <v>249</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H374" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>373</v>
       </c>
@@ -10941,8 +12082,11 @@
       <c r="G375" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H375" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>374</v>
       </c>
@@ -10964,8 +12108,11 @@
       <c r="G376" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H376" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>375</v>
       </c>
@@ -10987,8 +12134,11 @@
       <c r="G377" s="2">
         <v>559</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H377" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>376</v>
       </c>
@@ -11010,8 +12160,11 @@
       <c r="G378" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H378" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>377</v>
       </c>
@@ -11033,8 +12186,11 @@
       <c r="G379" s="2">
         <v>397</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H379" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>378</v>
       </c>
@@ -11056,8 +12212,11 @@
       <c r="G380" s="2">
         <v>2381</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H380" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>379</v>
       </c>
@@ -11079,8 +12238,11 @@
       <c r="G381" s="2">
         <v>396</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H381" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>380</v>
       </c>
@@ -11102,8 +12264,11 @@
       <c r="G382" s="2">
         <v>291</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H382" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>381</v>
       </c>
@@ -11125,8 +12290,11 @@
       <c r="G383" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H383" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>382</v>
       </c>
@@ -11148,8 +12316,11 @@
       <c r="G384" s="2">
         <v>163</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H384" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>383</v>
       </c>
@@ -11171,8 +12342,11 @@
       <c r="G385" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H385" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>384</v>
       </c>
@@ -11194,8 +12368,11 @@
       <c r="G386" s="2">
         <v>356</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H386" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>385</v>
       </c>
@@ -11217,8 +12394,11 @@
       <c r="G387" s="2">
         <v>143</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H387" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>386</v>
       </c>
@@ -11240,8 +12420,11 @@
       <c r="G388" s="2">
         <v>170</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H388" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>387</v>
       </c>
@@ -11263,8 +12446,11 @@
       <c r="G389" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H389" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>388</v>
       </c>
@@ -11286,8 +12472,11 @@
       <c r="G390" s="2">
         <v>504</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H390" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>389</v>
       </c>
@@ -11309,8 +12498,11 @@
       <c r="G391" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H391" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>390</v>
       </c>
@@ -11332,8 +12524,11 @@
       <c r="G392" s="2">
         <v>562</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H392" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>391</v>
       </c>
@@ -11355,8 +12550,11 @@
       <c r="G393" s="2">
         <v>213</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H393" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>392</v>
       </c>
@@ -11378,8 +12576,11 @@
       <c r="G394" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H394" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>393</v>
       </c>
@@ -11401,8 +12602,11 @@
       <c r="G395" s="2">
         <v>299</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H395" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>394</v>
       </c>
@@ -11424,8 +12628,11 @@
       <c r="G396" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H396" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>395</v>
       </c>
@@ -11447,8 +12654,11 @@
       <c r="G397" s="2">
         <v>472</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H397" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>396</v>
       </c>
@@ -11470,8 +12680,11 @@
       <c r="G398" s="2">
         <v>277</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H398" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>397</v>
       </c>
@@ -11493,8 +12706,11 @@
       <c r="G399" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H399" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>398</v>
       </c>
@@ -11516,8 +12732,11 @@
       <c r="G400" s="2">
         <v>293</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H400" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>399</v>
       </c>
@@ -11539,8 +12758,11 @@
       <c r="G401" s="2">
         <v>596</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H401" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>400</v>
       </c>
@@ -11562,8 +12784,11 @@
       <c r="G402" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H402" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>401</v>
       </c>
@@ -11585,8 +12810,11 @@
       <c r="G403" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H403" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>402</v>
       </c>
@@ -11608,8 +12836,11 @@
       <c r="G404" s="2">
         <v>196</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H404" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>403</v>
       </c>
@@ -11631,8 +12862,11 @@
       <c r="G405" s="2">
         <v>225</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H405" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>404</v>
       </c>
@@ -11654,8 +12888,11 @@
       <c r="G406" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H406" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>405</v>
       </c>
@@ -11677,8 +12914,11 @@
       <c r="G407" s="2">
         <v>233</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H407" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>406</v>
       </c>
@@ -11700,8 +12940,11 @@
       <c r="G408" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H408" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>407</v>
       </c>
@@ -11723,8 +12966,11 @@
       <c r="G409" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H409" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>408</v>
       </c>
@@ -11746,8 +12992,11 @@
       <c r="G410" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H410" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>409</v>
       </c>
@@ -11769,8 +13018,11 @@
       <c r="G411" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H411" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>410</v>
       </c>
@@ -11792,8 +13044,11 @@
       <c r="G412" s="2">
         <v>563</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H412" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>411</v>
       </c>
@@ -11815,8 +13070,11 @@
       <c r="G413" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H413" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>412</v>
       </c>
@@ -11838,8 +13096,11 @@
       <c r="G414" s="2">
         <v>369</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H414" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>413</v>
       </c>
@@ -11861,8 +13122,11 @@
       <c r="G415" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H415" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>414</v>
       </c>
@@ -11884,8 +13148,11 @@
       <c r="G416" s="2">
         <v>115</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H416" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>415</v>
       </c>
@@ -11907,8 +13174,11 @@
       <c r="G417" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H417" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>416</v>
       </c>
@@ -11930,8 +13200,11 @@
       <c r="G418" s="2">
         <v>259</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H418" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>417</v>
       </c>
@@ -11953,8 +13226,11 @@
       <c r="G419" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H419" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>418</v>
       </c>
@@ -11976,8 +13252,11 @@
       <c r="G420" s="2">
         <v>197</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H420" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>419</v>
       </c>
@@ -11999,8 +13278,11 @@
       <c r="G421" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H421" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>420</v>
       </c>
@@ -12022,8 +13304,11 @@
       <c r="G422" s="2">
         <v>195</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H422" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>421</v>
       </c>
@@ -12045,8 +13330,11 @@
       <c r="G423" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H423" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>422</v>
       </c>
@@ -12068,8 +13356,11 @@
       <c r="G424" s="2">
         <v>154</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H424" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>423</v>
       </c>
@@ -12091,8 +13382,11 @@
       <c r="G425" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H425" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>424</v>
       </c>
@@ -12114,8 +13408,11 @@
       <c r="G426" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H426" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>425</v>
       </c>
@@ -12137,8 +13434,11 @@
       <c r="G427" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H427" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>426</v>
       </c>
@@ -12160,8 +13460,11 @@
       <c r="G428" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H428" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>427</v>
       </c>
@@ -12183,8 +13486,11 @@
       <c r="G429" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H429" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>428</v>
       </c>
@@ -12206,8 +13512,11 @@
       <c r="G430" s="2">
         <v>151</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H430" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>429</v>
       </c>
@@ -12229,8 +13538,11 @@
       <c r="G431" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H431" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>430</v>
       </c>
@@ -12252,8 +13564,11 @@
       <c r="G432" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H432" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>431</v>
       </c>
@@ -12275,8 +13590,11 @@
       <c r="G433" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H433" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>432</v>
       </c>
@@ -12298,8 +13616,11 @@
       <c r="G434" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H434" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>433</v>
       </c>
@@ -12321,8 +13642,11 @@
       <c r="G435" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H435" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>434</v>
       </c>
@@ -12344,8 +13668,11 @@
       <c r="G436" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H436" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>435</v>
       </c>
@@ -12367,8 +13694,11 @@
       <c r="G437" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H437" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>436</v>
       </c>
@@ -12390,8 +13720,11 @@
       <c r="G438" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H438" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>437</v>
       </c>
@@ -12413,8 +13746,11 @@
       <c r="G439" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H439" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>438</v>
       </c>
@@ -12436,8 +13772,11 @@
       <c r="G440" s="2">
         <v>141</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H440" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>439</v>
       </c>
@@ -12459,8 +13798,11 @@
       <c r="G441" s="2">
         <v>291</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H441" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>440</v>
       </c>
@@ -12482,8 +13824,11 @@
       <c r="G442" s="2">
         <v>291</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H442" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>441</v>
       </c>
@@ -12505,8 +13850,11 @@
       <c r="G443" s="2">
         <v>291</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H443" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>442</v>
       </c>
@@ -12528,8 +13876,11 @@
       <c r="G444" s="2">
         <v>291</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H444" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>443</v>
       </c>
@@ -12551,8 +13902,11 @@
       <c r="G445" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H445" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>444</v>
       </c>
@@ -12574,8 +13928,11 @@
       <c r="G446" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H446" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>445</v>
       </c>
@@ -12597,8 +13954,11 @@
       <c r="G447" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H447" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>446</v>
       </c>
@@ -12620,8 +13980,11 @@
       <c r="G448" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H448" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>447</v>
       </c>
@@ -12643,8 +14006,11 @@
       <c r="G449" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H449" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>448</v>
       </c>
@@ -12666,8 +14032,11 @@
       <c r="G450" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H450" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>449</v>
       </c>
@@ -12689,8 +14058,11 @@
       <c r="G451" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H451" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>450</v>
       </c>
@@ -12712,8 +14084,11 @@
       <c r="G452" s="2">
         <v>135</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H452" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>451</v>
       </c>
@@ -12735,8 +14110,11 @@
       <c r="G453" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H453" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>452</v>
       </c>
@@ -12758,8 +14136,11 @@
       <c r="G454" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H454" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>453</v>
       </c>
@@ -12781,8 +14162,11 @@
       <c r="G455" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H455" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>454</v>
       </c>
@@ -12804,8 +14188,11 @@
       <c r="G456" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H456" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>455</v>
       </c>
@@ -12827,8 +14214,11 @@
       <c r="G457" s="2">
         <v>195</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H457" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>456</v>
       </c>
@@ -12850,8 +14240,11 @@
       <c r="G458" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H458" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>457</v>
       </c>
@@ -12873,8 +14266,11 @@
       <c r="G459" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H459" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>458</v>
       </c>
@@ -12896,8 +14292,11 @@
       <c r="G460" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H460" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>459</v>
       </c>
@@ -12919,8 +14318,11 @@
       <c r="G461" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H461" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>460</v>
       </c>
@@ -12942,8 +14344,11 @@
       <c r="G462" s="2">
         <v>291</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H462" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>461</v>
       </c>
@@ -12965,8 +14370,11 @@
       <c r="G463" s="2">
         <v>285</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H463" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>462</v>
       </c>
@@ -12988,8 +14396,11 @@
       <c r="G464" s="2">
         <v>68</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H464" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>463</v>
       </c>
@@ -13011,8 +14422,11 @@
       <c r="G465" s="2">
         <v>569</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H465" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>464</v>
       </c>
@@ -13034,8 +14448,11 @@
       <c r="G466" s="2">
         <v>235</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H466" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>465</v>
       </c>
@@ -13057,8 +14474,11 @@
       <c r="G467" s="2">
         <v>142</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H467" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>466</v>
       </c>
@@ -13080,8 +14500,11 @@
       <c r="G468" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H468" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>467</v>
       </c>
@@ -13103,8 +14526,11 @@
       <c r="G469" s="2">
         <v>207</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H469" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>468</v>
       </c>
@@ -13126,8 +14552,11 @@
       <c r="G470" s="2">
         <v>181</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H470" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>469</v>
       </c>
@@ -13149,8 +14578,11 @@
       <c r="G471" s="2">
         <v>204</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H471" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>470</v>
       </c>
@@ -13172,8 +14604,11 @@
       <c r="G472" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H472" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>471</v>
       </c>
@@ -13195,8 +14630,11 @@
       <c r="G473" s="2">
         <v>109</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H473" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>472</v>
       </c>
@@ -13218,8 +14656,11 @@
       <c r="G474" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H474" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>473</v>
       </c>
@@ -13241,8 +14682,11 @@
       <c r="G475" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H475" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>474</v>
       </c>
@@ -13264,8 +14708,11 @@
       <c r="G476" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H476" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>475</v>
       </c>
@@ -13287,8 +14734,11 @@
       <c r="G477" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H477" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>476</v>
       </c>
@@ -13310,8 +14760,11 @@
       <c r="G478" s="2">
         <v>472</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H478" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>477</v>
       </c>
@@ -13333,8 +14786,11 @@
       <c r="G479" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H479" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>478</v>
       </c>
@@ -13356,8 +14812,11 @@
       <c r="G480" s="2">
         <v>495</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H480" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>479</v>
       </c>
@@ -13379,8 +14838,11 @@
       <c r="G481" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H481" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>480</v>
       </c>
@@ -13402,8 +14864,11 @@
       <c r="G482" s="2">
         <v>151</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H482" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>481</v>
       </c>
@@ -13425,8 +14890,11 @@
       <c r="G483" s="2">
         <v>190</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H483" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>482</v>
       </c>
@@ -13448,8 +14916,11 @@
       <c r="G484" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H484" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>483</v>
       </c>
@@ -13471,8 +14942,11 @@
       <c r="G485" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H485" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>484</v>
       </c>
@@ -13494,8 +14968,11 @@
       <c r="G486" s="2">
         <v>259</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H486" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>485</v>
       </c>
@@ -13517,8 +14994,11 @@
       <c r="G487" s="2">
         <v>237</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H487" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>486</v>
       </c>
@@ -13540,8 +15020,11 @@
       <c r="G488" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H488" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>487</v>
       </c>
@@ -13563,8 +15046,11 @@
       <c r="G489" s="2">
         <v>119</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H489" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>488</v>
       </c>
@@ -13586,8 +15072,11 @@
       <c r="G490" s="2">
         <v>111</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H490" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>489</v>
       </c>
@@ -13609,8 +15098,11 @@
       <c r="G491" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H491" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>490</v>
       </c>
@@ -13632,8 +15124,11 @@
       <c r="G492" s="2">
         <v>236</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H492" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>491</v>
       </c>
@@ -13655,8 +15150,11 @@
       <c r="G493" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H493" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>492</v>
       </c>
@@ -13678,8 +15176,11 @@
       <c r="G494" s="2">
         <v>309</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H494" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>493</v>
       </c>
@@ -13701,8 +15202,11 @@
       <c r="G495" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H495" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>494</v>
       </c>
@@ -13724,8 +15228,11 @@
       <c r="G496" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H496" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>495</v>
       </c>
@@ -13746,6 +15253,15 @@
       </c>
       <c r="G497" s="2">
         <v>27</v>
+      </c>
+      <c r="H497" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H498" s="4">
+        <f>SUM(H2:H497)</f>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
